--- a/TestData/LV_T2007_GiftRequestProcessSplitGiftValueInEqualDistributionForSelectedRecipient.xlsx
+++ b/TestData/LV_T2007_GiftRequestProcessSplitGiftValueInEqualDistributionForSelectedRecipient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB70DDF3-AB63-4BF8-AF65-F0C0270CB7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07185DB-11E7-4225-85C7-832173FA2BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Melissa Zatta</t>
-  </si>
-  <si>
     <t>CF Financial User</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>GiftLog Contact</t>
+  </si>
+  <si>
+    <t>Julie Carthane</t>
   </si>
 </sst>
 </file>
@@ -189,11 +189,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -494,11 +497,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -519,12 +522,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -536,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3697C1F8-7FF2-444C-8A0E-05ACA0446189}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,17 +550,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +573,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,12 +633,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -656,7 +659,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -741,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
